--- a/TouhouVote_music_jp_grouped.xlsx
+++ b/TouhouVote_music_jp_grouped.xlsx
@@ -942,7 +942,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pure Furies　～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pure Furies　～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pure Furies　～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver)　～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>秘神摩多罗　～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间　～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pure Furies　～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16670,7 +16670,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16775,7 +16775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver)　～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -16987,7 +16987,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17162,7 +17162,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>秘神摩多罗　～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -18148,7 +18148,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -18498,7 +18498,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -20147,7 +20147,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间　～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -20464,7 +20464,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -22129,7 +22129,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pure Furies　～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22374,7 +22374,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22514,7 +22514,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver)　～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23004,7 +23004,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -23109,7 +23109,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>秘神摩多罗　～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -23284,7 +23284,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -23389,7 +23389,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -23949,7 +23949,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -24404,7 +24404,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -24579,7 +24579,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -24933,7 +24933,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -25038,7 +25038,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -25668,7 +25668,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -25917,7 +25917,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -26026,7 +26026,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -26343,7 +26343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间　～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -27823,7 +27823,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pure Furies ～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27893,7 +27893,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>上海红茶馆 ～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花 ～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27963,7 +27963,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>幽灵乐团 ～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>月时计 ～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>竹取飞翔 ～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>辉光之针的小人族 ～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28278,7 +28278,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>感情的摩天楼 ～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28313,7 +28313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>千年幻想乡 ～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28348,7 +28348,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>少女觉 ～ 3rd eye</t>
+          <t>少女觉</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28383,7 +28383,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>广有射怪鸟事 ～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -28558,7 +28558,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>狂气之瞳 ～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -28663,7 +28663,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>第六十年的东方审判 ～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -28838,7 +28838,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰 ～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fall of Fall ～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>秘神摩多罗 ～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -29013,7 +29013,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Locked Girl ～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -29048,7 +29048,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>有顶天变 ～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>圣德传说 ～ True Administrator</t>
+          <t>圣德传说</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -29118,7 +29118,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>东方妖妖梦 ～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -29297,7 +29297,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>妖怪之山 ～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -29332,7 +29332,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童 ～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -29647,7 +29647,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>原初的节拍 ～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场 ～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -29927,7 +29927,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>厄神降临之路 ～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子 ～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -30246,7 +30246,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>少女幻葬 ～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -30458,7 +30458,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Last Occultism ～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -30563,7 +30563,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血 ～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>今昔幻想乡 ～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -30921,7 +30921,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>彼岸归航 ～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛 ～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -31100,7 +31100,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>尸体旅行 ～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>星之器 ～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月 ～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>妖妖跋扈 ～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>春色小径 ～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -31983,7 +31983,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间 ～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>夜雀的歌声 ～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -32193,7 +32193,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>黑海中的绯红 ～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>眷爱众生之神 ～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -32298,7 +32298,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>妖精大战争 ～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -32518,7 +32518,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>剧毒身体 ～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -32658,7 +32658,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>被封印的妖怪 ～ Lost Place</t>
+          <t>被封印的妖怪</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -33185,7 +33185,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>天狗正凝视着 ～ Black Eyes</t>
+          <t>天狗正凝视着</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -33360,7 +33360,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>风的循环 ～ Wind Tour</t>
+          <t>风的循环</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -33990,7 +33990,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -34025,7 +34025,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>上海红茶馆 ～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -34095,7 +34095,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花 ～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -34130,7 +34130,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pure Furies ～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -34165,7 +34165,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>月时计 ～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -34200,7 +34200,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>幽灵乐团 ～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>少女觉 ～ 3rd eye</t>
+          <t>少女觉</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -34410,7 +34410,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>竹取飞翔 ～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>狂气之瞳 ～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -34480,7 +34480,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>千年幻想乡 ～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>感情的摩天楼 ～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -34830,7 +34830,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>辉光之针的小人族 ～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>广有射怪鸟事 ～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -34970,7 +34970,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>第六十年的东方审判 ～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -35005,7 +35005,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fall of Fall ～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰 ～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -35110,7 +35110,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Locked Girl ～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -35180,7 +35180,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童 ～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -35215,7 +35215,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>秘神摩多罗 ～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -35250,7 +35250,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>东方妖妖梦 ～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -35355,7 +35355,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>圣德传说 ～ True Administrator</t>
+          <t>圣德传说</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -35530,7 +35530,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>妖怪之山 ～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -35565,7 +35565,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>有顶天变 ～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -35670,7 +35670,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>厄神降临之路 ～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场 ～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -35950,7 +35950,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>原初的节拍 ～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -36160,7 +36160,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子 ～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血 ～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>全有机体的记忆 ～ Memory of Fossil Energy.</t>
+          <t>全有机体的记忆</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>少女幻葬 ～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -36726,7 +36726,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Last Occultism ～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -36831,7 +36831,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>今昔幻想乡 ～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>彼岸归航 ～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -37185,7 +37185,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>尸体旅行 ～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -37255,7 +37255,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>星之器 ～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -37290,7 +37290,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>春色小径 ～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -37360,7 +37360,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛 ～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -37753,7 +37753,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>妖妖跋扈 ～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -37858,7 +37858,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月 ～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -37893,7 +37893,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -37928,7 +37928,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间 ～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -37963,7 +37963,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>黑海中的绯红 ～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -38138,7 +38138,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>夜雀的歌声 ～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -38313,7 +38313,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>眷爱众生之神 ～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>剧毒身体 ～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -38560,7 +38560,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>妖精大战争 ～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -38879,7 +38879,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>被封印的妖怪 ～ Lost Place</t>
+          <t>被封印的妖怪</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -39054,7 +39054,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -39371,7 +39371,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>天狗正凝视着 ～ Black Eyes</t>
+          <t>天狗正凝视着</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -39546,7 +39546,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>风的循环 ～ Wind Tour</t>
+          <t>风的循环</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -40207,7 +40207,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>上海红茶馆 ～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -40277,7 +40277,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花 ～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -40347,7 +40347,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pure Furies ～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -40382,7 +40382,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>幽灵乐团 ～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -40452,7 +40452,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>月时计 ～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -40592,7 +40592,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>少女觉 ～ 3rd eye</t>
+          <t>少女觉</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -40627,7 +40627,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>千年幻想乡 ～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -40662,7 +40662,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>竹取飞翔 ～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -40732,7 +40732,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>感情的摩天楼 ～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -40872,7 +40872,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>狂气之瞳 ～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -40977,7 +40977,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>辉光之针的小人族 ～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -41012,7 +41012,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>广有射怪鸟事 ～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -41152,7 +41152,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>第六十年的东方审判 ～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -41222,7 +41222,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fall of Fall ～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -41257,7 +41257,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰 ～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -41362,7 +41362,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Locked Girl ～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -41471,7 +41471,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>秘神摩多罗 ～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -41541,7 +41541,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>圣德传说 ～ True Administrator</t>
+          <t>圣德传说</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -41576,7 +41576,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>东方妖妖梦 ～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -41646,7 +41646,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童 ～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -41716,7 +41716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -41786,7 +41786,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>妖怪之山 ～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -41821,7 +41821,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>有顶天变 ～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -41891,7 +41891,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>厄神降临之路 ～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -41965,7 +41965,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场 ～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -42140,7 +42140,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>少女幻葬 ～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -42280,7 +42280,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>原初的节拍 ～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -42597,7 +42597,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子 ～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -42632,7 +42632,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血 ～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>全有机体的记忆 ～ Memory of Fossil Energy.</t>
+          <t>全有机体的记忆</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -42949,7 +42949,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>尸体旅行 ～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -43124,7 +43124,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Last Occultism ～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -43194,7 +43194,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>妖妖跋扈 ～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>今昔幻想乡 ～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -43369,7 +43369,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>彼岸归航 ～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -43404,7 +43404,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>星之器 ～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -43579,7 +43579,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>春色小径 ～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -43754,7 +43754,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛 ～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -44038,7 +44038,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月 ～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -44143,7 +44143,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>夜雀的歌声 ～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -44248,7 +44248,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -44392,7 +44392,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间 ～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -44497,7 +44497,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>黑海中的绯红 ～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -44742,7 +44742,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>眷爱众生之神 ～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -44847,7 +44847,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>妖精大战争 ～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -45096,7 +45096,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>剧毒身体 ～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -45131,7 +45131,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>一对的神兽</t>
+          <t>成对的神兽</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -45345,7 +45345,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>被封印的妖怪 ～ Lost Place</t>
+          <t>被封印的妖怪</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -45944,7 +45944,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>风的循环 ～ Wind Tour</t>
+          <t>风的循环</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -45979,7 +45979,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>天狗正凝视着 ～ Black Eyes</t>
+          <t>天狗正凝视着</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -46675,7 +46675,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -46710,7 +46710,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>上海红茶馆 ～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -46745,7 +46745,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>寄世界于偶像 ～ Idoratrize World</t>
+          <t>寄世界于偶像</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -46815,7 +46815,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花 ～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -46885,7 +46885,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pure Furies ～ 心之所在</t>
+          <t>Pure Furies</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -46920,7 +46920,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>月时计 ～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -47025,7 +47025,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>少女觉 ～ 3rd eye</t>
+          <t>少女觉</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -47060,7 +47060,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>竹取飞翔 ～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -47095,7 +47095,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>幽灵乐团 ～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -47130,7 +47130,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>千年幻想乡 ～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
+          <t>今宵是飘逸的自我主义者</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -47305,7 +47305,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>感情的摩天楼 ～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -47445,7 +47445,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>狂气之瞳 ～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -47550,7 +47550,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>辉光之针的小人族 ～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -47585,7 +47585,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>广有射怪鸟事 ～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -47690,7 +47690,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>第六十年的东方审判 ～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -47760,7 +47760,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fall of Fall ～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -47795,7 +47795,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Locked Girl ～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -47830,7 +47830,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰 ～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -47900,7 +47900,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>熙攘市场今何在 ～ Immemorial Marketeers</t>
+          <t>熙攘市场今何在</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -47970,7 +47970,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>妖怪之山 ～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -48005,7 +48005,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>秘神摩多罗 ～ Hidden Star in All Seasons.</t>
+          <t>秘神摩多罗</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -48147,7 +48147,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童 ～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -48182,7 +48182,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>圣德传说 ～ True Administrator</t>
+          <t>圣德传说</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -48252,7 +48252,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>东方妖妖梦 ～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -48322,7 +48322,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>有顶天变 ～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -48532,7 +48532,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>厄神降临之路 ～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -48672,7 +48672,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场 ～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -48952,7 +48952,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>少女幻葬 ～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -49022,7 +49022,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血 ～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -49057,7 +49057,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>原初的节拍 ～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -49092,7 +49092,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子 ～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -49199,7 +49199,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>越轨者们的无碍光 ～ Kingdam of Nothingness.</t>
+          <t>越轨者们的无碍光</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -49549,7 +49549,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>今昔幻想乡 ～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -49619,7 +49619,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>尸体旅行 ～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -49726,7 +49726,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Last Occultism ～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -49831,7 +49831,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>全有机体的记忆 ～ Memory of Fossil Energy.</t>
+          <t>全有机体的记忆</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -49866,7 +49866,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>彼岸归航 ～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -50111,7 +50111,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>星之器 ～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -50146,7 +50146,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>春色小径 ～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -50181,7 +50181,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>凭坐处于梦与现实之间 ～ Necro-Fantasia</t>
+          <t>凭坐处于梦与现实之间</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -50251,7 +50251,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>妖妖跋扈 ～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -50356,7 +50356,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛 ～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -50461,7 +50461,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>圣德太子的天马 ～ Dark Pegasus</t>
+          <t>圣德太子的天马</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -50601,7 +50601,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月 ～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -50671,7 +50671,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>夜雀的歌声 ～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -50846,7 +50846,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -50916,7 +50916,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>眷爱众生之神 ～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -50986,7 +50986,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>黑海中的绯红 ～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -51338,7 +51338,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Tortoise Dragon ～ 幸运与不幸</t>
+          <t>Tortoise Dragon</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -51408,7 +51408,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>妖精大战争 ～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -51548,7 +51548,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>剧毒身体 ～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -52040,7 +52040,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>被封印的妖怪 ～ Lost Place</t>
+          <t>被封印的妖怪</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -52536,7 +52536,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>风的循环 ～ Wind Tour</t>
+          <t>风的循环</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -52641,7 +52641,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>天狗正凝视着 ～ Black Eyes</t>
+          <t>天狗正凝视着</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -53160,7 +53160,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -53278,7 +53278,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -53336,7 +53336,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -53396,7 +53396,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -53425,7 +53425,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -53483,7 +53483,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -53512,7 +53512,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -53541,7 +53541,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -53572,7 +53572,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -53630,7 +53630,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -53690,7 +53690,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -53721,7 +53721,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -53781,7 +53781,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -53868,7 +53868,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -54075,7 +54075,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -54104,7 +54104,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -54249,7 +54249,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -54278,7 +54278,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -54338,7 +54338,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -54456,7 +54456,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -54485,7 +54485,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -54514,7 +54514,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -54603,7 +54603,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -55020,7 +55020,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -55053,7 +55053,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -55156,7 +55156,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -55193,7 +55193,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -55226,7 +55226,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -55263,7 +55263,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -55296,7 +55296,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -55333,7 +55333,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -55438,7 +55438,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -55545,7 +55545,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -55611,7 +55611,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -55646,7 +55646,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -55745,7 +55745,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -55778,7 +55778,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -55813,7 +55813,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -55879,7 +55879,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -56019,7 +56019,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -56089,7 +56089,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -56258,7 +56258,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -56425,7 +56425,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -56458,7 +56458,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -56625,7 +56625,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -56658,7 +56658,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -56759,7 +56759,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -56827,7 +56827,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -56893,7 +56893,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -56967,7 +56967,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -57002,7 +57002,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -57035,7 +57035,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -57344,7 +57344,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -57511,7 +57511,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -57581,7 +57581,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -57649,7 +57649,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -57684,7 +57684,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -57717,7 +57717,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -57820,7 +57820,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -57888,7 +57888,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -57921,7 +57921,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -57993,7 +57993,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -58102,7 +58102,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -58137,7 +58137,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -58170,7 +58170,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -58271,7 +58271,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -58337,7 +58337,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -58473,7 +58473,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -58611,7 +58611,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -58648,7 +58648,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -58681,7 +58681,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -58718,7 +58718,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -58751,7 +58751,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -58817,7 +58817,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -58918,7 +58918,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -59052,7 +59052,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -59122,7 +59122,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -59225,7 +59225,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -59291,7 +59291,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -59555,7 +59555,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -59625,7 +59625,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -59693,7 +59693,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -59759,7 +59759,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -59792,7 +59792,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -59891,7 +59891,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -60029,7 +60029,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -60266,7 +60266,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -60303,7 +60303,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -60404,7 +60404,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -60536,7 +60536,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -60569,7 +60569,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -60637,7 +60637,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -60740,7 +60740,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -60806,7 +60806,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -60839,7 +60839,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -60872,7 +60872,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -60975,7 +60975,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -61041,7 +61041,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -61179,7 +61179,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -61420,7 +61420,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -61488,7 +61488,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -61587,7 +61587,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -61655,7 +61655,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -61789,7 +61789,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -61927,7 +61927,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -61960,7 +61960,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -61993,7 +61993,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -62059,7 +62059,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -62092,7 +62092,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -62125,7 +62125,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -62191,7 +62191,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -62290,7 +62290,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -62323,7 +62323,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -62391,7 +62391,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -62426,7 +62426,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -62729,7 +62729,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -62795,7 +62795,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -62861,7 +62861,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -62894,7 +62894,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -63028,7 +63028,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -63094,7 +63094,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -63127,7 +63127,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -63428,7 +63428,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -63461,7 +63461,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -63527,7 +63527,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -63725,7 +63725,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -63791,7 +63791,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -63859,7 +63859,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -63892,7 +63892,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -63995,7 +63995,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -64061,7 +64061,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -64094,7 +64094,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -64127,7 +64127,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -64162,7 +64162,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -64228,7 +64228,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -64327,7 +64327,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -64626,7 +64626,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -64659,7 +64659,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -64758,7 +64758,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -64824,7 +64824,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -64960,7 +64960,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -65026,7 +65026,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -65160,7 +65160,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -65226,7 +65226,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -65259,7 +65259,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -65292,7 +65292,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -65358,7 +65358,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -65428,7 +65428,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -65494,7 +65494,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -65593,7 +65593,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -65692,7 +65692,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -65758,7 +65758,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -65956,7 +65956,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -65989,7 +65989,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -66164,7 +66164,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -66230,7 +66230,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -66296,7 +66296,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -66399,7 +66399,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -66465,7 +66465,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -66836,7 +66836,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -66869,7 +66869,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -66935,7 +66935,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -67034,7 +67034,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -67067,7 +67067,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -67304,7 +67304,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -67370,7 +67370,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -67403,7 +67403,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -67469,7 +67469,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -67502,7 +67502,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -67572,7 +67572,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -67605,7 +67605,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -67704,7 +67704,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -67869,7 +67869,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -68104,7 +68104,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -68137,7 +68137,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -68269,7 +68269,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -68302,7 +68302,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -68471,7 +68471,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -68504,7 +68504,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -68673,7 +68673,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -68706,7 +68706,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -68739,7 +68739,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -68772,7 +68772,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -68805,7 +68805,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -69040,7 +69040,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -69139,7 +69139,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -69271,7 +69271,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -69306,7 +69306,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -69471,7 +69471,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -69504,7 +69504,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -69537,7 +69537,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -69603,7 +69603,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -69636,7 +69636,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -69702,7 +69702,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -69980,7 +69980,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -70112,7 +70112,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -70516,7 +70516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -70549,7 +70549,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -70619,7 +70619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -70786,7 +70786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -70852,7 +70852,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -70918,7 +70918,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -71017,7 +71017,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -71054,7 +71054,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -71087,7 +71087,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -71120,7 +71120,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -71186,7 +71186,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -71252,7 +71252,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -71285,7 +71285,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -71318,7 +71318,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -71522,7 +71522,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -71625,7 +71625,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -71860,7 +71860,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -72025,7 +72025,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -72091,7 +72091,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -72293,7 +72293,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -72361,7 +72361,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -72427,7 +72427,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -72497,7 +72497,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -72598,7 +72598,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -72664,7 +72664,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -72697,7 +72697,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -72796,7 +72796,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -72961,7 +72961,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -73064,7 +73064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -73097,7 +73097,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -73299,7 +73299,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -73332,7 +73332,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -73534,7 +73534,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -73567,7 +73567,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -73600,7 +73600,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -73699,7 +73699,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -73765,7 +73765,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -74002,7 +74002,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -74134,7 +74134,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -74573,7 +74573,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>幽雅地绽放吧，墨染的樱花　～ Border of Life</t>
+          <t>幽雅地绽放吧，墨染的樱花</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -74610,7 +74610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>辉光之针的小人族　～ Little Princess</t>
+          <t>辉光之针的小人族</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -74680,7 +74680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>感情的摩天楼　～ Cosmic Mind</t>
+          <t>感情的摩天楼</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -74750,7 +74750,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>上海红茶馆　～ Chinese Tea</t>
+          <t>上海红茶馆</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -74855,7 +74855,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>幽灵乐团　～ Phantom Ensemble</t>
+          <t>幽灵乐团</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -74890,7 +74890,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>恋色Master spark（恋色Magic）</t>
+          <t>恋色Master spark</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -74960,7 +74960,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>千年幻想乡　～ History of the Moon</t>
+          <t>千年幻想乡</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -75030,7 +75030,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>竹取飞翔　～ Lunatic Princess</t>
+          <t>竹取飞翔</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -75135,7 +75135,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>月时计　～ Luna Dial</t>
+          <t>月时计</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -75170,7 +75170,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>灵知的太阳信仰　～ Nuclear Fusion</t>
+          <t>灵知的太阳信仰</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -75240,7 +75240,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fall of Fall　～ 秋意渐浓之瀑</t>
+          <t>Fall of Fall</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -75347,7 +75347,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>原初的节拍　～ Pristine Beat</t>
+          <t>原初的节拍</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -75452,7 +75452,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>春之岸边</t>
+          <t>春之港湾</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -75524,7 +75524,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>妖怪之山　～ Mysterious Mountain</t>
+          <t>妖怪之山</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -75664,7 +75664,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>第六十年的东方审判　～ Fate of Sixty Years</t>
+          <t>第六十年的东方审判</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -75734,7 +75734,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>芥川龙之介的河童　～ Candid Friend</t>
+          <t>芥川龙之介的河童</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -75804,7 +75804,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>神圣庄严的古战场　～ Suwa Foughten Field</t>
+          <t>神圣庄严的古战场</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -75878,7 +75878,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Last Occultism　～ 现世的秘术师</t>
+          <t>Last Occultism</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -75913,7 +75913,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>狂气之瞳　～ Invisible Full Moon</t>
+          <t>狂气之瞳</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -76090,7 +76090,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>有顶天变　～ Wonderful Heaven</t>
+          <t>有顶天变</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -76125,7 +76125,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Locked Girl　～ 少女密室</t>
+          <t>Locked Girl</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -76160,7 +76160,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>广有射怪鸟事　～ Till When?</t>
+          <t>广有射怪鸟事</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -76374,7 +76374,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>东方妖妖梦　～ Ancient Temple</t>
+          <t>东方妖妖梦</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -76549,7 +76549,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>灰姑娘的笼子　～ Kagome-Kagome</t>
+          <t>灰姑娘的笼子</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -76584,7 +76584,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>厄神降临之路　～ Dark Road</t>
+          <t>厄神降临之路</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -76691,7 +76691,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>少女幻葬　～ Necro-Fantasy</t>
+          <t>少女幻葬</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -76726,7 +76726,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>令人怀念的东方之血　～ Old World</t>
+          <t>令人怀念的东方之血</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -77047,7 +77047,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>今昔幻想乡　～ Flower Land</t>
+          <t>今昔幻想乡</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -77117,7 +77117,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>彼岸归航　～ Riverside View</t>
+          <t>彼岸归航</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -77152,7 +77152,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>御伽之国的鬼岛　～ Missing Power</t>
+          <t>御伽之国的鬼岛</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -77257,7 +77257,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>尸体旅行　～ Be of good cheer!</t>
+          <t>尸体旅行</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -77329,7 +77329,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>星之器　～ Casket of Star</t>
+          <t>星之器</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -77574,7 +77574,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>春色小径　～ Colorful Path</t>
+          <t>春色小径</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -77714,7 +77714,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>妖妖跋扈　～ Who done it!</t>
+          <t>妖妖跋扈</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -77749,7 +77749,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>凋叶棕（withered leaf）</t>
+          <t>凋叶棕</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -77784,7 +77784,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>黑海中的绯红　～ Legendary Fish</t>
+          <t>黑海中的绯红</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -77819,7 +77819,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>妖精大战争　～ Fairy Wars</t>
+          <t>妖精大战争</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -77961,7 +77961,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>夜雀的歌声　～ Night Bird</t>
+          <t>夜雀的歌声</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -77996,7 +77996,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>蠢蠢的秋月　～ Mooned Insect</t>
+          <t>蠢蠢的秋月</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -78101,7 +78101,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>眷爱众生之神　～ Romantic Fall</t>
+          <t>眷爱众生之神</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -78463,7 +78463,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>剧毒身体　～ Forsaken Doll</t>
+          <t>剧毒身体</t>
         </is>
       </c>
       <c r="F115" t="n">
